--- a/RoomAcoustics/7_classroom_absorbing/classroom/classroom.xlsx
+++ b/RoomAcoustics/7_classroom_absorbing/classroom/classroom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessio\Desktop\Acoustics\CMLS\Homework3\MusicalAcousticsHWs\RoomAcoustics\7_classroom_absorbing\classroom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23DC3CE-7AA5-43EC-88AB-97947819C0A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4869198-5D92-4A17-A097-CEF3AC03A212}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BB565E4E-FC54-436F-A8D8-FDB3071E8C13}"/>
   </bookViews>
@@ -346,6 +346,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -361,34 +383,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,15 +736,15 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1065,17 +1065,17 @@
   <sheetData>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="6"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="1">
         <v>30</v>
       </c>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1127,294 +1127,294 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
     </row>
     <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="14" t="s">
+      <c r="O12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="15"/>
+      <c r="P12" s="19"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="10">
+      <c r="B14" s="5">
         <v>0</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="5">
         <f>125*2^(B14)</f>
         <v>125</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="6">
         <v>0.15</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="6">
         <v>0.15</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="6">
         <v>0.1</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="6">
         <v>0.3</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="6">
         <v>0.12</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="6">
         <v>0.12</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="6">
         <v>0.12</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="6">
         <v>0.28000000000000003</v>
       </c>
-      <c r="O14" s="16">
+      <c r="O14" s="11">
         <f>1/(surface_B1)*(D14*area_S1_B1+E14*area_S2_B1+F14*area_S3_B1+G14*area_S4_B1+H14*area_S5_B1_1+I14*area_S5_B1_2+J14*area_S6_B1+K14*area_S7_B1)</f>
         <v>0.14411021814006889</v>
       </c>
-      <c r="P14" s="17"/>
+      <c r="P14" s="12"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="10">
+      <c r="B15" s="5">
         <v>1</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="5">
         <f>125*2^(B15)</f>
         <v>250</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="6">
         <v>0.11</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="6">
         <v>0.11</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="6">
         <v>0.05</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="6">
         <v>0.25</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="6">
         <v>0.09</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="6">
         <v>0.09</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="6">
         <v>0.09</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="6">
         <v>0.25</v>
       </c>
-      <c r="O15" s="16">
-        <f t="shared" ref="O14:O19" si="0">1/(surface_B1)*(D15*area_S1_B1+E15*area_S2_B1+F15*area_S3_B1+G15*area_S4_B1+H15*area_S5_B1_1+I15*area_S5_B1_2+J15*area_S6_B1+K15*area_S7_B1)</f>
+      <c r="O15" s="11">
+        <f t="shared" ref="O15:O19" si="0">1/(surface_B1)*(D15*area_S1_B1+E15*area_S2_B1+F15*area_S3_B1+G15*area_S4_B1+H15*area_S5_B1_1+I15*area_S5_B1_2+J15*area_S6_B1+K15*area_S7_B1)</f>
         <v>0.10610792192881746</v>
       </c>
-      <c r="P15" s="17"/>
+      <c r="P15" s="12"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="10">
+      <c r="B16" s="5">
         <v>2</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="5">
         <f t="shared" ref="C16:C19" si="1">125*2^(B16)</f>
         <v>500</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="6">
         <v>0.1</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="6">
         <v>0.1</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="6">
         <v>0.06</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="6">
         <v>0.2</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="6">
         <v>0.18</v>
       </c>
-      <c r="O16" s="16">
+      <c r="O16" s="11">
         <f t="shared" si="0"/>
         <v>9.2353616532721006E-2</v>
       </c>
-      <c r="P16" s="17"/>
+      <c r="P16" s="12"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="10">
+      <c r="B17" s="5">
         <v>3</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="5">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="6">
         <v>0.17</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="6">
         <v>0.05</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="6">
         <v>0.05</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="6">
         <v>0.05</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="6">
         <v>0.12</v>
       </c>
-      <c r="O17" s="16">
+      <c r="O17" s="11">
         <f t="shared" si="0"/>
         <v>6.7967853042479931E-2</v>
       </c>
-      <c r="P17" s="17"/>
+      <c r="P17" s="12"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="10">
+      <c r="B18" s="5">
         <v>4</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="5">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="6">
         <v>0.06</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="6">
         <v>0.06</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="6">
         <v>0.09</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="6">
         <v>0.15</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="6">
         <v>0.05</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="6">
         <v>0.05</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="6">
         <v>0.05</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O18" s="16">
+      <c r="O18" s="11">
         <f>1/(surface_B1)*(D18*area_S1_B1+E18*area_S2_B1+F18*area_S3_B1+G18*area_S4_B1+H18*area_S5_B1_1+I18*area_S5_B1_2+J18*area_S6_B1+K18*area_S7_B1)</f>
         <v>6.1980482204362801E-2</v>
       </c>
-      <c r="P18" s="17"/>
+      <c r="P18" s="12"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="10">
+      <c r="B19" s="5">
         <v>5</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="5">
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="6">
         <v>0.08</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="6">
         <v>0.1</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="6">
         <v>0.04</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="6">
         <v>0.04</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="6">
         <v>0.04</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="6">
         <v>0.04</v>
       </c>
-      <c r="O19" s="16">
+      <c r="O19" s="11">
         <f t="shared" si="0"/>
         <v>6.1923076923076942E-2</v>
       </c>
-      <c r="P19" s="17"/>
+      <c r="P19" s="12"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
@@ -1425,10 +1425,10 @@
       <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1500,16 +1500,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O14:P14"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="O19:P19"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O14:P14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
